--- a/Code/Results/Cases/Case_4_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01550715757062</v>
+        <v>1.041855452380072</v>
       </c>
       <c r="D2">
-        <v>1.033011703111295</v>
+        <v>1.048112602419637</v>
       </c>
       <c r="E2">
-        <v>1.023581715841875</v>
+        <v>1.045514437125752</v>
       </c>
       <c r="F2">
-        <v>1.037659951024592</v>
+        <v>1.057231649114056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049873474002563</v>
+        <v>1.042796899191724</v>
       </c>
       <c r="J2">
-        <v>1.037233742239395</v>
+        <v>1.046934411610532</v>
       </c>
       <c r="K2">
-        <v>1.044029519975169</v>
+        <v>1.05087335590201</v>
       </c>
       <c r="L2">
-        <v>1.034722012063946</v>
+        <v>1.048282463003418</v>
       </c>
       <c r="M2">
-        <v>1.048618418103036</v>
+        <v>1.059967184412183</v>
       </c>
       <c r="N2">
-        <v>1.038706733125761</v>
+        <v>1.048421178560075</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01972629066349</v>
+        <v>1.042755729240309</v>
       </c>
       <c r="D3">
-        <v>1.036145360275647</v>
+        <v>1.048806046764527</v>
       </c>
       <c r="E3">
-        <v>1.02731441837106</v>
+        <v>1.046363408118827</v>
       </c>
       <c r="F3">
-        <v>1.041328074080978</v>
+        <v>1.058063253164113</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051134830836915</v>
+        <v>1.043021081877379</v>
       </c>
       <c r="J3">
-        <v>1.039693270014485</v>
+        <v>1.047481133072909</v>
       </c>
       <c r="K3">
-        <v>1.046335735136461</v>
+        <v>1.051379087190754</v>
       </c>
       <c r="L3">
-        <v>1.037609339111505</v>
+        <v>1.048942792222813</v>
       </c>
       <c r="M3">
-        <v>1.051458113427575</v>
+        <v>1.060612538743194</v>
       </c>
       <c r="N3">
-        <v>1.04116975371239</v>
+        <v>1.048968676429638</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022405017292006</v>
+        <v>1.043338899664495</v>
       </c>
       <c r="D4">
-        <v>1.038138235910842</v>
+        <v>1.049255306037898</v>
       </c>
       <c r="E4">
-        <v>1.02968956755866</v>
+        <v>1.046913708633568</v>
       </c>
       <c r="F4">
-        <v>1.043662210587621</v>
+        <v>1.058602252647805</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051927869861363</v>
+        <v>1.043165305437507</v>
       </c>
       <c r="J4">
-        <v>1.041252460091602</v>
+        <v>1.047834880323182</v>
       </c>
       <c r="K4">
-        <v>1.047797164988613</v>
+        <v>1.051706205213374</v>
       </c>
       <c r="L4">
-        <v>1.03944239908904</v>
+        <v>1.049370383415459</v>
       </c>
       <c r="M4">
-        <v>1.053260752383109</v>
+        <v>1.061030370993399</v>
       </c>
       <c r="N4">
-        <v>1.042731158018259</v>
+        <v>1.049322926041582</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023519267535094</v>
+        <v>1.043584214236788</v>
       </c>
       <c r="D5">
-        <v>1.038967948991243</v>
+        <v>1.049444305762767</v>
       </c>
       <c r="E5">
-        <v>1.030678770745432</v>
+        <v>1.047145283040939</v>
       </c>
       <c r="F5">
-        <v>1.04463434207589</v>
+        <v>1.058829060816062</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052255842006437</v>
+        <v>1.043225735836936</v>
       </c>
       <c r="J5">
-        <v>1.041900428101654</v>
+        <v>1.047983590176034</v>
       </c>
       <c r="K5">
-        <v>1.048404361422389</v>
+        <v>1.051843694784982</v>
       </c>
       <c r="L5">
-        <v>1.040204827438474</v>
+        <v>1.049550216584783</v>
       </c>
       <c r="M5">
-        <v>1.054010476289679</v>
+        <v>1.06120608486764</v>
       </c>
       <c r="N5">
-        <v>1.043380046217208</v>
+        <v>1.049471847079482</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023705669412906</v>
+        <v>1.043625412373496</v>
       </c>
       <c r="D6">
-        <v>1.03910679379678</v>
+        <v>1.049476047290967</v>
       </c>
       <c r="E6">
-        <v>1.030844325010738</v>
+        <v>1.047184178729506</v>
       </c>
       <c r="F6">
-        <v>1.044797039466189</v>
+        <v>1.05886715533301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052310595417145</v>
+        <v>1.043235870550303</v>
       </c>
       <c r="J6">
-        <v>1.042008790129671</v>
+        <v>1.048008558859009</v>
       </c>
       <c r="K6">
-        <v>1.048505896360957</v>
+        <v>1.051866778046163</v>
       </c>
       <c r="L6">
-        <v>1.040332369166411</v>
+        <v>1.0495804156556</v>
       </c>
       <c r="M6">
-        <v>1.054135889530045</v>
+        <v>1.061235591313063</v>
       </c>
       <c r="N6">
-        <v>1.043488562131734</v>
+        <v>1.049496851220851</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022419952142539</v>
+        <v>1.043342176983188</v>
       </c>
       <c r="D7">
-        <v>1.038149354059574</v>
+        <v>1.049257830948246</v>
       </c>
       <c r="E7">
-        <v>1.029702821525578</v>
+        <v>1.046916802048024</v>
       </c>
       <c r="F7">
-        <v>1.04367523579328</v>
+        <v>1.058605282435721</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051932273389544</v>
+        <v>1.043166113702797</v>
       </c>
       <c r="J7">
-        <v>1.041261147524839</v>
+        <v>1.047836867414542</v>
       </c>
       <c r="K7">
-        <v>1.047805306369956</v>
+        <v>1.051708042478429</v>
       </c>
       <c r="L7">
-        <v>1.039452618558062</v>
+        <v>1.049372786066649</v>
       </c>
       <c r="M7">
-        <v>1.053270801776815</v>
+        <v>1.061032718667823</v>
       </c>
       <c r="N7">
-        <v>1.042739857788648</v>
+        <v>1.049324915954839</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016943911159232</v>
+        <v>1.042159573668624</v>
       </c>
       <c r="D8">
-        <v>1.034078093800838</v>
+        <v>1.048346839425196</v>
       </c>
       <c r="E8">
-        <v>1.024851702962567</v>
+        <v>1.045801151188682</v>
       </c>
       <c r="F8">
-        <v>1.0389079432976</v>
+        <v>1.0575125070204</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050304620841369</v>
+        <v>1.042872835821707</v>
       </c>
       <c r="J8">
-        <v>1.038071769033944</v>
+        <v>1.047119181737445</v>
       </c>
       <c r="K8">
-        <v>1.044815423664433</v>
+        <v>1.051044295114963</v>
       </c>
       <c r="L8">
-        <v>1.035705244092337</v>
+        <v>1.048505558521197</v>
       </c>
       <c r="M8">
-        <v>1.049585463045931</v>
+        <v>1.060185233379132</v>
       </c>
       <c r="N8">
-        <v>1.039545950014468</v>
+        <v>1.048606211081761</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006882197068543</v>
+        <v>1.04008056918766</v>
       </c>
       <c r="D9">
-        <v>1.026626008912552</v>
+        <v>1.0467458728922</v>
       </c>
       <c r="E9">
-        <v>1.015981473765805</v>
+        <v>1.043842653032802</v>
       </c>
       <c r="F9">
-        <v>1.030192094436097</v>
+        <v>1.05559383644759</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047253607010927</v>
+        <v>1.042349656538031</v>
       </c>
       <c r="J9">
-        <v>1.032194246219749</v>
+        <v>1.045854440590317</v>
       </c>
       <c r="K9">
-        <v>1.039301378882759</v>
+        <v>1.049873790165665</v>
       </c>
       <c r="L9">
-        <v>1.028820476868991</v>
+        <v>1.046979857537617</v>
       </c>
       <c r="M9">
-        <v>1.042813607508018</v>
+        <v>1.058693794048116</v>
       </c>
       <c r="N9">
-        <v>1.033660080443716</v>
+        <v>1.047339673857137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9998690304142291</v>
+        <v>1.038697937028925</v>
       </c>
       <c r="D10">
-        <v>1.021454238880172</v>
+        <v>1.045681559676827</v>
       </c>
       <c r="E10">
-        <v>1.009830349751431</v>
+        <v>1.042542074686107</v>
       </c>
       <c r="F10">
-        <v>1.024149475560007</v>
+        <v>1.05431949150734</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045088309499209</v>
+        <v>1.041996615704941</v>
       </c>
       <c r="J10">
-        <v>1.028087845592048</v>
+        <v>1.045011290066024</v>
       </c>
       <c r="K10">
-        <v>1.03544664162673</v>
+        <v>1.049092920103481</v>
       </c>
       <c r="L10">
-        <v>1.024024353938413</v>
+        <v>1.045964460890394</v>
       </c>
       <c r="M10">
-        <v>1.038095976587932</v>
+        <v>1.057700888711556</v>
       </c>
       <c r="N10">
-        <v>1.029547848256113</v>
+        <v>1.046495325962388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9967530564197107</v>
+        <v>1.038100058362138</v>
       </c>
       <c r="D11">
-        <v>1.019162474416075</v>
+        <v>1.045221431431283</v>
       </c>
       <c r="E11">
-        <v>1.007105415829145</v>
+        <v>1.04198013698799</v>
       </c>
       <c r="F11">
-        <v>1.021473119260023</v>
+        <v>1.05376883888882</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044117574286419</v>
+        <v>1.041842744174246</v>
       </c>
       <c r="J11">
-        <v>1.026261538676803</v>
+        <v>1.044646213467308</v>
       </c>
       <c r="K11">
-        <v>1.033731841709502</v>
+        <v>1.04875468289931</v>
       </c>
       <c r="L11">
-        <v>1.02189456699543</v>
+        <v>1.045525211840571</v>
       </c>
       <c r="M11">
-        <v>1.03600113579589</v>
+        <v>1.057271296622413</v>
       </c>
       <c r="N11">
-        <v>1.027718947775567</v>
+        <v>1.046129730913027</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9955831234987176</v>
+        <v>1.037878102654203</v>
       </c>
       <c r="D12">
-        <v>1.018302980227225</v>
+        <v>1.045050630065719</v>
       </c>
       <c r="E12">
-        <v>1.00608355956926</v>
+        <v>1.041771593442602</v>
       </c>
       <c r="F12">
-        <v>1.020469571323047</v>
+        <v>1.053564476085183</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043751837590118</v>
+        <v>1.041785439460804</v>
       </c>
       <c r="J12">
-        <v>1.025575596976634</v>
+        <v>1.044510610888785</v>
       </c>
       <c r="K12">
-        <v>1.03308772867339</v>
+        <v>1.048629030387389</v>
       </c>
       <c r="L12">
-        <v>1.021095128961635</v>
+        <v>1.045362120292883</v>
       </c>
       <c r="M12">
-        <v>1.035214840398561</v>
+        <v>1.05711177986975</v>
       </c>
       <c r="N12">
-        <v>1.027032031959506</v>
+        <v>1.045993935763289</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9958346550730954</v>
+        <v>1.037925707317364</v>
       </c>
       <c r="D13">
-        <v>1.018487723219008</v>
+        <v>1.045087262500686</v>
       </c>
       <c r="E13">
-        <v>1.006303197620469</v>
+        <v>1.041816318336736</v>
       </c>
       <c r="F13">
-        <v>1.020685269789477</v>
+        <v>1.053608304693938</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04383052601815</v>
+        <v>1.041797738292758</v>
       </c>
       <c r="J13">
-        <v>1.025723081837599</v>
+        <v>1.044539697942271</v>
       </c>
       <c r="K13">
-        <v>1.033226222100868</v>
+        <v>1.048655983989945</v>
       </c>
       <c r="L13">
-        <v>1.021266994788102</v>
+        <v>1.045397101015636</v>
       </c>
       <c r="M13">
-        <v>1.035383879445154</v>
+        <v>1.057145994339025</v>
       </c>
       <c r="N13">
-        <v>1.02717972626589</v>
+        <v>1.046023064123727</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9966566085497743</v>
+        <v>1.038081708916204</v>
       </c>
       <c r="D14">
-        <v>1.019091598454334</v>
+        <v>1.045207310668457</v>
       </c>
       <c r="E14">
-        <v>1.007021149403307</v>
+        <v>1.041962894927219</v>
       </c>
       <c r="F14">
-        <v>1.021390360660633</v>
+        <v>1.053751942634075</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044087448783716</v>
+        <v>1.041838010404498</v>
       </c>
       <c r="J14">
-        <v>1.026204994911573</v>
+        <v>1.044635004445449</v>
       </c>
       <c r="K14">
-        <v>1.03367874697533</v>
+        <v>1.048744296746246</v>
       </c>
       <c r="L14">
-        <v>1.021828657574002</v>
+        <v>1.04551172930641</v>
       </c>
       <c r="M14">
-        <v>1.035936309333148</v>
+        <v>1.057258109830965</v>
       </c>
       <c r="N14">
-        <v>1.027662323711706</v>
+        <v>1.046118505973071</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9971613628319069</v>
+        <v>1.038177842995041</v>
       </c>
       <c r="D15">
-        <v>1.019462563956614</v>
+        <v>1.045281291030837</v>
       </c>
       <c r="E15">
-        <v>1.007462204306038</v>
+        <v>1.042053230183889</v>
       </c>
       <c r="F15">
-        <v>1.021823527348841</v>
+        <v>1.053840465831513</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044245057660452</v>
+        <v>1.041862803527672</v>
       </c>
       <c r="J15">
-        <v>1.026500904232227</v>
+        <v>1.044693726376152</v>
       </c>
       <c r="K15">
-        <v>1.033956604490264</v>
+        <v>1.048798707044525</v>
       </c>
       <c r="L15">
-        <v>1.02217359984631</v>
+        <v>1.04558236424716</v>
       </c>
       <c r="M15">
-        <v>1.036275584953224</v>
+        <v>1.057327194935138</v>
       </c>
       <c r="N15">
-        <v>1.027958653257536</v>
+        <v>1.046177311295651</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000074106229707</v>
+        <v>1.038737633449875</v>
       </c>
       <c r="D16">
-        <v>1.02160520202407</v>
+        <v>1.045712112315681</v>
       </c>
       <c r="E16">
-        <v>1.010009861081358</v>
+        <v>1.042579394512654</v>
       </c>
       <c r="F16">
-        <v>1.024325798624922</v>
+        <v>1.054356060826628</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045152020310559</v>
+        <v>1.042006806584421</v>
       </c>
       <c r="J16">
-        <v>1.02820800840007</v>
+        <v>1.045035519372612</v>
       </c>
       <c r="K16">
-        <v>1.035559459935802</v>
+        <v>1.049115365463098</v>
       </c>
       <c r="L16">
-        <v>1.02416455223469</v>
+        <v>1.045993621459637</v>
       </c>
       <c r="M16">
-        <v>1.038233877330275</v>
+        <v>1.05772940666074</v>
       </c>
       <c r="N16">
-        <v>1.029668181709105</v>
+        <v>1.04651958967737</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001879557565046</v>
+        <v>1.039088993057786</v>
       </c>
       <c r="D17">
-        <v>1.022934954602114</v>
+        <v>1.045982550746275</v>
       </c>
       <c r="E17">
-        <v>1.011591168226742</v>
+        <v>1.042909771637049</v>
       </c>
       <c r="F17">
-        <v>1.0258790804585</v>
+        <v>1.054679788305292</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045711934309963</v>
+        <v>1.04209686794633</v>
       </c>
       <c r="J17">
-        <v>1.029265698269302</v>
+        <v>1.045249921419622</v>
       </c>
       <c r="K17">
-        <v>1.036552456005514</v>
+        <v>1.049313966875964</v>
       </c>
       <c r="L17">
-        <v>1.025398969429518</v>
+        <v>1.046251706816963</v>
       </c>
       <c r="M17">
-        <v>1.03944807673053</v>
+        <v>1.057981796144758</v>
       </c>
       <c r="N17">
-        <v>1.03072737361927</v>
+        <v>1.04673429619988</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00292504637613</v>
+        <v>1.039294013253956</v>
       </c>
       <c r="D18">
-        <v>1.023705551187315</v>
+        <v>1.046140362885944</v>
       </c>
       <c r="E18">
-        <v>1.012507620858862</v>
+        <v>1.043102592752129</v>
       </c>
       <c r="F18">
-        <v>1.026779338434385</v>
+        <v>1.054868723632484</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046035337364311</v>
+        <v>1.042149302443185</v>
       </c>
       <c r="J18">
-        <v>1.02987800261523</v>
+        <v>1.045374979697011</v>
       </c>
       <c r="K18">
-        <v>1.037127268083696</v>
+        <v>1.049429796515303</v>
       </c>
       <c r="L18">
-        <v>1.026113893419304</v>
+        <v>1.04640228449744</v>
       </c>
       <c r="M18">
-        <v>1.04015129922231</v>
+        <v>1.058129043608883</v>
       </c>
       <c r="N18">
-        <v>1.031340547507602</v>
+        <v>1.046859532074367</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003280260024174</v>
+        <v>1.039363933046267</v>
       </c>
       <c r="D19">
-        <v>1.023967463014507</v>
+        <v>1.046194184567665</v>
       </c>
       <c r="E19">
-        <v>1.01281912082858</v>
+        <v>1.043168359688008</v>
       </c>
       <c r="F19">
-        <v>1.027085341506392</v>
+        <v>1.054933164397186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046145074520625</v>
+        <v>1.042167164817923</v>
       </c>
       <c r="J19">
-        <v>1.030086007147746</v>
+        <v>1.045417621504795</v>
       </c>
       <c r="K19">
-        <v>1.037322529006724</v>
+        <v>1.049469289492909</v>
       </c>
       <c r="L19">
-        <v>1.02635681149833</v>
+        <v>1.046453634484514</v>
       </c>
       <c r="M19">
-        <v>1.040390242335675</v>
+        <v>1.058179256734213</v>
       </c>
       <c r="N19">
-        <v>1.031548847430412</v>
+        <v>1.046902234438409</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001686640214124</v>
+        <v>1.039051287411162</v>
       </c>
       <c r="D20">
-        <v>1.022792807126318</v>
+        <v>1.045953528012181</v>
       </c>
       <c r="E20">
-        <v>1.011422122142069</v>
+        <v>1.042874313109204</v>
       </c>
       <c r="F20">
-        <v>1.025713025324954</v>
+        <v>1.05464504396157</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045652191590986</v>
+        <v>1.042087215219466</v>
       </c>
       <c r="J20">
-        <v>1.029152699179606</v>
+        <v>1.045226917977581</v>
       </c>
       <c r="K20">
-        <v>1.036446372657924</v>
+        <v>1.049292659974415</v>
       </c>
       <c r="L20">
-        <v>1.025267057319303</v>
+        <v>1.046224012464763</v>
       </c>
       <c r="M20">
-        <v>1.03931832423902</v>
+        <v>1.057954713723446</v>
       </c>
       <c r="N20">
-        <v>1.030614214057905</v>
+        <v>1.046711260090313</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9964149145579984</v>
+        <v>1.038035766926116</v>
       </c>
       <c r="D21">
-        <v>1.018914002504229</v>
+        <v>1.045171956404874</v>
       </c>
       <c r="E21">
-        <v>1.006810001959802</v>
+        <v>1.041919726650744</v>
       </c>
       <c r="F21">
-        <v>1.021182992925658</v>
+        <v>1.053709640020804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044011935463274</v>
+        <v>1.041826155406248</v>
       </c>
       <c r="J21">
-        <v>1.02606329522233</v>
+        <v>1.04460693896019</v>
       </c>
       <c r="K21">
-        <v>1.03354568981638</v>
+        <v>1.048718291277183</v>
       </c>
       <c r="L21">
-        <v>1.021663495224853</v>
+        <v>1.045477972323724</v>
       </c>
       <c r="M21">
-        <v>1.03577386121607</v>
+        <v>1.057225093141892</v>
       </c>
       <c r="N21">
-        <v>1.02752042279265</v>
+        <v>1.046090400631604</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9930275904021214</v>
+        <v>1.037397981479261</v>
       </c>
       <c r="D22">
-        <v>1.01642742583305</v>
+        <v>1.044681192892879</v>
       </c>
       <c r="E22">
-        <v>1.003853840292261</v>
+        <v>1.041320612213397</v>
       </c>
       <c r="F22">
-        <v>1.0182799868001</v>
+        <v>1.053122522573875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042950674410613</v>
+        <v>1.0416611493459</v>
       </c>
       <c r="J22">
-        <v>1.024076889492069</v>
+        <v>1.044217152197945</v>
       </c>
       <c r="K22">
-        <v>1.031680328585974</v>
+        <v>1.048357069997241</v>
       </c>
       <c r="L22">
-        <v>1.019349336505394</v>
+        <v>1.045009284633154</v>
       </c>
       <c r="M22">
-        <v>1.033497808155442</v>
+        <v>1.056766658358551</v>
       </c>
       <c r="N22">
-        <v>1.025531196138408</v>
+        <v>1.045700060327448</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9948303909087448</v>
+        <v>1.037736015621692</v>
       </c>
       <c r="D23">
-        <v>1.017750267602163</v>
+        <v>1.044941294561613</v>
       </c>
       <c r="E23">
-        <v>1.005426459314346</v>
+        <v>1.04163811195244</v>
       </c>
       <c r="F23">
-        <v>1.019824271904425</v>
+        <v>1.053433668496755</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043516173425457</v>
+        <v>1.041748704184573</v>
       </c>
       <c r="J23">
-        <v>1.025134203740016</v>
+        <v>1.044423783382791</v>
       </c>
       <c r="K23">
-        <v>1.032673238238146</v>
+        <v>1.048548568645384</v>
       </c>
       <c r="L23">
-        <v>1.020580839436116</v>
+        <v>1.045257708626928</v>
       </c>
       <c r="M23">
-        <v>1.034709014320346</v>
+        <v>1.057009653769811</v>
       </c>
       <c r="N23">
-        <v>1.026590011893863</v>
+        <v>1.045906984952277</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001773834703691</v>
+        <v>1.03906832472873</v>
       </c>
       <c r="D24">
-        <v>1.022857052956449</v>
+        <v>1.045966641920426</v>
       </c>
       <c r="E24">
-        <v>1.011498524981842</v>
+        <v>1.042890334928079</v>
       </c>
       <c r="F24">
-        <v>1.025788076214688</v>
+        <v>1.054660743093528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045679196584449</v>
+        <v>1.04209157717032</v>
       </c>
       <c r="J24">
-        <v>1.029203772883378</v>
+        <v>1.045237312239319</v>
       </c>
       <c r="K24">
-        <v>1.036494320688165</v>
+        <v>1.049302287680837</v>
       </c>
       <c r="L24">
-        <v>1.025326678428726</v>
+        <v>1.046236526224344</v>
       </c>
       <c r="M24">
-        <v>1.039376969229226</v>
+        <v>1.057966951002252</v>
       </c>
       <c r="N24">
-        <v>1.030665360292195</v>
+        <v>1.046721669113094</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009535043237302</v>
+        <v>1.040617453468873</v>
       </c>
       <c r="D25">
-        <v>1.028587168172385</v>
+        <v>1.047159239711698</v>
       </c>
       <c r="E25">
-        <v>1.018314899431231</v>
+        <v>1.04434808226002</v>
       </c>
       <c r="F25">
-        <v>1.032484710218332</v>
+        <v>1.056089025807752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048064867213682</v>
+        <v>1.042485663703194</v>
       </c>
       <c r="J25">
-        <v>1.033745721605602</v>
+        <v>1.046181409740699</v>
       </c>
       <c r="K25">
-        <v>1.040757340958219</v>
+        <v>1.050176492892016</v>
       </c>
       <c r="L25">
-        <v>1.030635400676696</v>
+        <v>1.047373987470987</v>
       </c>
       <c r="M25">
-        <v>1.044598835851079</v>
+        <v>1.059079128493014</v>
       </c>
       <c r="N25">
-        <v>1.035213759102574</v>
+        <v>1.047667107341215</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_107/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_107/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041855452380072</v>
+        <v>1.01550715757062</v>
       </c>
       <c r="D2">
-        <v>1.048112602419637</v>
+        <v>1.033011703111295</v>
       </c>
       <c r="E2">
-        <v>1.045514437125752</v>
+        <v>1.023581715841875</v>
       </c>
       <c r="F2">
-        <v>1.057231649114056</v>
+        <v>1.037659951024592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042796899191724</v>
+        <v>1.049873474002563</v>
       </c>
       <c r="J2">
-        <v>1.046934411610532</v>
+        <v>1.037233742239395</v>
       </c>
       <c r="K2">
-        <v>1.05087335590201</v>
+        <v>1.044029519975169</v>
       </c>
       <c r="L2">
-        <v>1.048282463003418</v>
+        <v>1.034722012063946</v>
       </c>
       <c r="M2">
-        <v>1.059967184412183</v>
+        <v>1.048618418103036</v>
       </c>
       <c r="N2">
-        <v>1.048421178560075</v>
+        <v>1.038706733125761</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042755729240309</v>
+        <v>1.01972629066349</v>
       </c>
       <c r="D3">
-        <v>1.048806046764527</v>
+        <v>1.036145360275646</v>
       </c>
       <c r="E3">
-        <v>1.046363408118827</v>
+        <v>1.027314418371061</v>
       </c>
       <c r="F3">
-        <v>1.058063253164113</v>
+        <v>1.041328074080978</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043021081877379</v>
+        <v>1.051134830836915</v>
       </c>
       <c r="J3">
-        <v>1.047481133072909</v>
+        <v>1.039693270014485</v>
       </c>
       <c r="K3">
-        <v>1.051379087190754</v>
+        <v>1.046335735136462</v>
       </c>
       <c r="L3">
-        <v>1.048942792222813</v>
+        <v>1.037609339111506</v>
       </c>
       <c r="M3">
-        <v>1.060612538743194</v>
+        <v>1.051458113427575</v>
       </c>
       <c r="N3">
-        <v>1.048968676429638</v>
+        <v>1.04116975371239</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043338899664495</v>
+        <v>1.022405017292006</v>
       </c>
       <c r="D4">
-        <v>1.049255306037898</v>
+        <v>1.038138235910842</v>
       </c>
       <c r="E4">
-        <v>1.046913708633568</v>
+        <v>1.02968956755866</v>
       </c>
       <c r="F4">
-        <v>1.058602252647805</v>
+        <v>1.043662210587621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043165305437507</v>
+        <v>1.051927869861363</v>
       </c>
       <c r="J4">
-        <v>1.047834880323182</v>
+        <v>1.041252460091602</v>
       </c>
       <c r="K4">
-        <v>1.051706205213374</v>
+        <v>1.047797164988613</v>
       </c>
       <c r="L4">
-        <v>1.049370383415459</v>
+        <v>1.03944239908904</v>
       </c>
       <c r="M4">
-        <v>1.061030370993399</v>
+        <v>1.053260752383109</v>
       </c>
       <c r="N4">
-        <v>1.049322926041582</v>
+        <v>1.042731158018259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043584214236788</v>
+        <v>1.023519267535094</v>
       </c>
       <c r="D5">
-        <v>1.049444305762767</v>
+        <v>1.038967948991242</v>
       </c>
       <c r="E5">
-        <v>1.047145283040939</v>
+        <v>1.030678770745432</v>
       </c>
       <c r="F5">
-        <v>1.058829060816062</v>
+        <v>1.04463434207589</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043225735836936</v>
+        <v>1.052255842006437</v>
       </c>
       <c r="J5">
-        <v>1.047983590176034</v>
+        <v>1.041900428101654</v>
       </c>
       <c r="K5">
-        <v>1.051843694784982</v>
+        <v>1.048404361422389</v>
       </c>
       <c r="L5">
-        <v>1.049550216584783</v>
+        <v>1.040204827438474</v>
       </c>
       <c r="M5">
-        <v>1.06120608486764</v>
+        <v>1.054010476289679</v>
       </c>
       <c r="N5">
-        <v>1.049471847079482</v>
+        <v>1.043380046217208</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043625412373496</v>
+        <v>1.023705669412906</v>
       </c>
       <c r="D6">
-        <v>1.049476047290967</v>
+        <v>1.03910679379678</v>
       </c>
       <c r="E6">
-        <v>1.047184178729506</v>
+        <v>1.030844325010738</v>
       </c>
       <c r="F6">
-        <v>1.05886715533301</v>
+        <v>1.044797039466189</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043235870550303</v>
+        <v>1.052310595417145</v>
       </c>
       <c r="J6">
-        <v>1.048008558859009</v>
+        <v>1.042008790129672</v>
       </c>
       <c r="K6">
-        <v>1.051866778046163</v>
+        <v>1.048505896360957</v>
       </c>
       <c r="L6">
-        <v>1.0495804156556</v>
+        <v>1.040332369166411</v>
       </c>
       <c r="M6">
-        <v>1.061235591313063</v>
+        <v>1.054135889530045</v>
       </c>
       <c r="N6">
-        <v>1.049496851220851</v>
+        <v>1.043488562131735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043342176983188</v>
+        <v>1.022419952142539</v>
       </c>
       <c r="D7">
-        <v>1.049257830948246</v>
+        <v>1.038149354059573</v>
       </c>
       <c r="E7">
-        <v>1.046916802048024</v>
+        <v>1.029702821525578</v>
       </c>
       <c r="F7">
-        <v>1.058605282435721</v>
+        <v>1.04367523579328</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043166113702797</v>
+        <v>1.051932273389544</v>
       </c>
       <c r="J7">
-        <v>1.047836867414542</v>
+        <v>1.041261147524839</v>
       </c>
       <c r="K7">
-        <v>1.051708042478429</v>
+        <v>1.047805306369956</v>
       </c>
       <c r="L7">
-        <v>1.049372786066649</v>
+        <v>1.039452618558062</v>
       </c>
       <c r="M7">
-        <v>1.061032718667823</v>
+        <v>1.053270801776815</v>
       </c>
       <c r="N7">
-        <v>1.049324915954839</v>
+        <v>1.042739857788647</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042159573668624</v>
+        <v>1.016943911159233</v>
       </c>
       <c r="D8">
-        <v>1.048346839425196</v>
+        <v>1.034078093800839</v>
       </c>
       <c r="E8">
-        <v>1.045801151188682</v>
+        <v>1.024851702962567</v>
       </c>
       <c r="F8">
-        <v>1.0575125070204</v>
+        <v>1.038907943297601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042872835821707</v>
+        <v>1.050304620841369</v>
       </c>
       <c r="J8">
-        <v>1.047119181737445</v>
+        <v>1.038071769033945</v>
       </c>
       <c r="K8">
-        <v>1.051044295114963</v>
+        <v>1.044815423664434</v>
       </c>
       <c r="L8">
-        <v>1.048505558521197</v>
+        <v>1.035705244092338</v>
       </c>
       <c r="M8">
-        <v>1.060185233379132</v>
+        <v>1.049585463045932</v>
       </c>
       <c r="N8">
-        <v>1.048606211081761</v>
+        <v>1.039545950014469</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04008056918766</v>
+        <v>1.006882197068544</v>
       </c>
       <c r="D9">
-        <v>1.0467458728922</v>
+        <v>1.026626008912552</v>
       </c>
       <c r="E9">
-        <v>1.043842653032802</v>
+        <v>1.015981473765806</v>
       </c>
       <c r="F9">
-        <v>1.05559383644759</v>
+        <v>1.030192094436098</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042349656538031</v>
+        <v>1.047253607010927</v>
       </c>
       <c r="J9">
-        <v>1.045854440590317</v>
+        <v>1.03219424621975</v>
       </c>
       <c r="K9">
-        <v>1.049873790165665</v>
+        <v>1.03930137888276</v>
       </c>
       <c r="L9">
-        <v>1.046979857537617</v>
+        <v>1.028820476868991</v>
       </c>
       <c r="M9">
-        <v>1.058693794048116</v>
+        <v>1.042813607508019</v>
       </c>
       <c r="N9">
-        <v>1.047339673857137</v>
+        <v>1.033660080443717</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038697937028925</v>
+        <v>0.9998690304142275</v>
       </c>
       <c r="D10">
-        <v>1.045681559676827</v>
+        <v>1.021454238880171</v>
       </c>
       <c r="E10">
-        <v>1.042542074686107</v>
+        <v>1.00983034975143</v>
       </c>
       <c r="F10">
-        <v>1.05431949150734</v>
+        <v>1.024149475560006</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041996615704941</v>
+        <v>1.045088309499209</v>
       </c>
       <c r="J10">
-        <v>1.045011290066024</v>
+        <v>1.028087845592047</v>
       </c>
       <c r="K10">
-        <v>1.049092920103481</v>
+        <v>1.035446641626729</v>
       </c>
       <c r="L10">
-        <v>1.045964460890394</v>
+        <v>1.024024353938411</v>
       </c>
       <c r="M10">
-        <v>1.057700888711556</v>
+        <v>1.038095976587931</v>
       </c>
       <c r="N10">
-        <v>1.046495325962388</v>
+        <v>1.029547848256111</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038100058362138</v>
+        <v>0.9967530564197101</v>
       </c>
       <c r="D11">
-        <v>1.045221431431283</v>
+        <v>1.019162474416074</v>
       </c>
       <c r="E11">
-        <v>1.04198013698799</v>
+        <v>1.007105415829144</v>
       </c>
       <c r="F11">
-        <v>1.05376883888882</v>
+        <v>1.021473119260022</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041842744174246</v>
+        <v>1.044117574286419</v>
       </c>
       <c r="J11">
-        <v>1.044646213467308</v>
+        <v>1.026261538676802</v>
       </c>
       <c r="K11">
-        <v>1.04875468289931</v>
+        <v>1.033731841709502</v>
       </c>
       <c r="L11">
-        <v>1.045525211840571</v>
+        <v>1.02189456699543</v>
       </c>
       <c r="M11">
-        <v>1.057271296622413</v>
+        <v>1.036001135795889</v>
       </c>
       <c r="N11">
-        <v>1.046129730913027</v>
+        <v>1.027718947775567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037878102654203</v>
+        <v>0.9955831234987184</v>
       </c>
       <c r="D12">
-        <v>1.045050630065719</v>
+        <v>1.018302980227225</v>
       </c>
       <c r="E12">
-        <v>1.041771593442602</v>
+        <v>1.006083559569261</v>
       </c>
       <c r="F12">
-        <v>1.053564476085183</v>
+        <v>1.020469571323047</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041785439460804</v>
+        <v>1.043751837590118</v>
       </c>
       <c r="J12">
-        <v>1.044510610888785</v>
+        <v>1.025575596976634</v>
       </c>
       <c r="K12">
-        <v>1.048629030387389</v>
+        <v>1.03308772867339</v>
       </c>
       <c r="L12">
-        <v>1.045362120292883</v>
+        <v>1.021095128961636</v>
       </c>
       <c r="M12">
-        <v>1.05711177986975</v>
+        <v>1.035214840398561</v>
       </c>
       <c r="N12">
-        <v>1.045993935763289</v>
+        <v>1.027032031959507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037925707317364</v>
+        <v>0.9958346550730955</v>
       </c>
       <c r="D13">
-        <v>1.045087262500686</v>
+        <v>1.018487723219009</v>
       </c>
       <c r="E13">
-        <v>1.041816318336736</v>
+        <v>1.006303197620469</v>
       </c>
       <c r="F13">
-        <v>1.053608304693938</v>
+        <v>1.020685269789477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041797738292758</v>
+        <v>1.04383052601815</v>
       </c>
       <c r="J13">
-        <v>1.044539697942271</v>
+        <v>1.025723081837599</v>
       </c>
       <c r="K13">
-        <v>1.048655983989945</v>
+        <v>1.033226222100868</v>
       </c>
       <c r="L13">
-        <v>1.045397101015636</v>
+        <v>1.021266994788102</v>
       </c>
       <c r="M13">
-        <v>1.057145994339025</v>
+        <v>1.035383879445154</v>
       </c>
       <c r="N13">
-        <v>1.046023064123727</v>
+        <v>1.02717972626589</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038081708916204</v>
+        <v>0.9966566085497738</v>
       </c>
       <c r="D14">
-        <v>1.045207310668457</v>
+        <v>1.019091598454333</v>
       </c>
       <c r="E14">
-        <v>1.041962894927219</v>
+        <v>1.007021149403306</v>
       </c>
       <c r="F14">
-        <v>1.053751942634075</v>
+        <v>1.021390360660632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041838010404498</v>
+        <v>1.044087448783716</v>
       </c>
       <c r="J14">
-        <v>1.044635004445449</v>
+        <v>1.026204994911573</v>
       </c>
       <c r="K14">
-        <v>1.048744296746246</v>
+        <v>1.03367874697533</v>
       </c>
       <c r="L14">
-        <v>1.04551172930641</v>
+        <v>1.021828657574002</v>
       </c>
       <c r="M14">
-        <v>1.057258109830965</v>
+        <v>1.035936309333148</v>
       </c>
       <c r="N14">
-        <v>1.046118505973071</v>
+        <v>1.027662323711705</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038177842995041</v>
+        <v>0.9971613628319065</v>
       </c>
       <c r="D15">
-        <v>1.045281291030837</v>
+        <v>1.019462563956614</v>
       </c>
       <c r="E15">
-        <v>1.042053230183889</v>
+        <v>1.007462204306038</v>
       </c>
       <c r="F15">
-        <v>1.053840465831513</v>
+        <v>1.02182352734884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041862803527672</v>
+        <v>1.044245057660452</v>
       </c>
       <c r="J15">
-        <v>1.044693726376152</v>
+        <v>1.026500904232227</v>
       </c>
       <c r="K15">
-        <v>1.048798707044525</v>
+        <v>1.033956604490263</v>
       </c>
       <c r="L15">
-        <v>1.04558236424716</v>
+        <v>1.022173599846309</v>
       </c>
       <c r="M15">
-        <v>1.057327194935138</v>
+        <v>1.036275584953223</v>
       </c>
       <c r="N15">
-        <v>1.046177311295651</v>
+        <v>1.027958653257536</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038737633449875</v>
+        <v>1.000074106229705</v>
       </c>
       <c r="D16">
-        <v>1.045712112315681</v>
+        <v>1.021605202024068</v>
       </c>
       <c r="E16">
-        <v>1.042579394512654</v>
+        <v>1.010009861081356</v>
       </c>
       <c r="F16">
-        <v>1.054356060826628</v>
+        <v>1.02432579862492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042006806584421</v>
+        <v>1.045152020310558</v>
       </c>
       <c r="J16">
-        <v>1.045035519372612</v>
+        <v>1.028208008400068</v>
       </c>
       <c r="K16">
-        <v>1.049115365463098</v>
+        <v>1.0355594599358</v>
       </c>
       <c r="L16">
-        <v>1.045993621459637</v>
+        <v>1.024164552234688</v>
       </c>
       <c r="M16">
-        <v>1.05772940666074</v>
+        <v>1.038233877330273</v>
       </c>
       <c r="N16">
-        <v>1.04651958967737</v>
+        <v>1.029668181709103</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039088993057786</v>
+        <v>1.001879557565046</v>
       </c>
       <c r="D17">
-        <v>1.045982550746275</v>
+        <v>1.022934954602113</v>
       </c>
       <c r="E17">
-        <v>1.042909771637049</v>
+        <v>1.011591168226742</v>
       </c>
       <c r="F17">
-        <v>1.054679788305292</v>
+        <v>1.025879080458499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04209686794633</v>
+        <v>1.045711934309963</v>
       </c>
       <c r="J17">
-        <v>1.045249921419622</v>
+        <v>1.029265698269302</v>
       </c>
       <c r="K17">
-        <v>1.049313966875964</v>
+        <v>1.036552456005514</v>
       </c>
       <c r="L17">
-        <v>1.046251706816963</v>
+        <v>1.025398969429517</v>
       </c>
       <c r="M17">
-        <v>1.057981796144758</v>
+        <v>1.039448076730529</v>
       </c>
       <c r="N17">
-        <v>1.04673429619988</v>
+        <v>1.03072737361927</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039294013253956</v>
+        <v>1.002925046376128</v>
       </c>
       <c r="D18">
-        <v>1.046140362885944</v>
+        <v>1.023705551187314</v>
       </c>
       <c r="E18">
-        <v>1.043102592752129</v>
+        <v>1.01250762085886</v>
       </c>
       <c r="F18">
-        <v>1.054868723632484</v>
+        <v>1.026779338434384</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042149302443185</v>
+        <v>1.04603533736431</v>
       </c>
       <c r="J18">
-        <v>1.045374979697011</v>
+        <v>1.029878002615229</v>
       </c>
       <c r="K18">
-        <v>1.049429796515303</v>
+        <v>1.037127268083695</v>
       </c>
       <c r="L18">
-        <v>1.04640228449744</v>
+        <v>1.026113893419303</v>
       </c>
       <c r="M18">
-        <v>1.058129043608883</v>
+        <v>1.040151299222309</v>
       </c>
       <c r="N18">
-        <v>1.046859532074367</v>
+        <v>1.031340547507601</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039363933046267</v>
+        <v>1.003280260024174</v>
       </c>
       <c r="D19">
-        <v>1.046194184567665</v>
+        <v>1.023967463014507</v>
       </c>
       <c r="E19">
-        <v>1.043168359688008</v>
+        <v>1.01281912082858</v>
       </c>
       <c r="F19">
-        <v>1.054933164397186</v>
+        <v>1.027085341506392</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042167164817923</v>
+        <v>1.046145074520624</v>
       </c>
       <c r="J19">
-        <v>1.045417621504795</v>
+        <v>1.030086007147746</v>
       </c>
       <c r="K19">
-        <v>1.049469289492909</v>
+        <v>1.037322529006724</v>
       </c>
       <c r="L19">
-        <v>1.046453634484514</v>
+        <v>1.02635681149833</v>
       </c>
       <c r="M19">
-        <v>1.058179256734213</v>
+        <v>1.040390242335675</v>
       </c>
       <c r="N19">
-        <v>1.046902234438409</v>
+        <v>1.031548847430413</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039051287411162</v>
+        <v>1.001686640214125</v>
       </c>
       <c r="D20">
-        <v>1.045953528012181</v>
+        <v>1.022792807126319</v>
       </c>
       <c r="E20">
-        <v>1.042874313109204</v>
+        <v>1.01142212214207</v>
       </c>
       <c r="F20">
-        <v>1.05464504396157</v>
+        <v>1.025713025324955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042087215219466</v>
+        <v>1.045652191590987</v>
       </c>
       <c r="J20">
-        <v>1.045226917977581</v>
+        <v>1.029152699179607</v>
       </c>
       <c r="K20">
-        <v>1.049292659974415</v>
+        <v>1.036446372657925</v>
       </c>
       <c r="L20">
-        <v>1.046224012464763</v>
+        <v>1.025267057319304</v>
       </c>
       <c r="M20">
-        <v>1.057954713723446</v>
+        <v>1.039318324239021</v>
       </c>
       <c r="N20">
-        <v>1.046711260090313</v>
+        <v>1.030614214057906</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038035766926116</v>
+        <v>0.9964149145579986</v>
       </c>
       <c r="D21">
-        <v>1.045171956404874</v>
+        <v>1.018914002504229</v>
       </c>
       <c r="E21">
-        <v>1.041919726650744</v>
+        <v>1.006810001959802</v>
       </c>
       <c r="F21">
-        <v>1.053709640020804</v>
+        <v>1.021182992925658</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041826155406248</v>
+        <v>1.044011935463274</v>
       </c>
       <c r="J21">
-        <v>1.04460693896019</v>
+        <v>1.02606329522233</v>
       </c>
       <c r="K21">
-        <v>1.048718291277183</v>
+        <v>1.03354568981638</v>
       </c>
       <c r="L21">
-        <v>1.045477972323724</v>
+        <v>1.021663495224854</v>
       </c>
       <c r="M21">
-        <v>1.057225093141892</v>
+        <v>1.03577386121607</v>
       </c>
       <c r="N21">
-        <v>1.046090400631604</v>
+        <v>1.02752042279265</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037397981479261</v>
+        <v>0.9930275904021214</v>
       </c>
       <c r="D22">
-        <v>1.044681192892879</v>
+        <v>1.01642742583305</v>
       </c>
       <c r="E22">
-        <v>1.041320612213397</v>
+        <v>1.003853840292261</v>
       </c>
       <c r="F22">
-        <v>1.053122522573875</v>
+        <v>1.018279986800101</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0416611493459</v>
+        <v>1.042950674410613</v>
       </c>
       <c r="J22">
-        <v>1.044217152197945</v>
+        <v>1.024076889492069</v>
       </c>
       <c r="K22">
-        <v>1.048357069997241</v>
+        <v>1.031680328585975</v>
       </c>
       <c r="L22">
-        <v>1.045009284633154</v>
+        <v>1.019349336505394</v>
       </c>
       <c r="M22">
-        <v>1.056766658358551</v>
+        <v>1.033497808155443</v>
       </c>
       <c r="N22">
-        <v>1.045700060327448</v>
+        <v>1.025531196138409</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037736015621692</v>
+        <v>0.9948303909087448</v>
       </c>
       <c r="D23">
-        <v>1.044941294561613</v>
+        <v>1.017750267602163</v>
       </c>
       <c r="E23">
-        <v>1.04163811195244</v>
+        <v>1.005426459314345</v>
       </c>
       <c r="F23">
-        <v>1.053433668496755</v>
+        <v>1.019824271904424</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041748704184573</v>
+        <v>1.043516173425457</v>
       </c>
       <c r="J23">
-        <v>1.044423783382791</v>
+        <v>1.025134203740016</v>
       </c>
       <c r="K23">
-        <v>1.048548568645384</v>
+        <v>1.032673238238146</v>
       </c>
       <c r="L23">
-        <v>1.045257708626928</v>
+        <v>1.020580839436116</v>
       </c>
       <c r="M23">
-        <v>1.057009653769811</v>
+        <v>1.034709014320346</v>
       </c>
       <c r="N23">
-        <v>1.045906984952277</v>
+        <v>1.026590011893864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03906832472873</v>
+        <v>1.00177383470369</v>
       </c>
       <c r="D24">
-        <v>1.045966641920426</v>
+        <v>1.022857052956448</v>
       </c>
       <c r="E24">
-        <v>1.042890334928079</v>
+        <v>1.011498524981841</v>
       </c>
       <c r="F24">
-        <v>1.054660743093528</v>
+        <v>1.025788076214687</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04209157717032</v>
+        <v>1.045679196584448</v>
       </c>
       <c r="J24">
-        <v>1.045237312239319</v>
+        <v>1.029203772883377</v>
       </c>
       <c r="K24">
-        <v>1.049302287680837</v>
+        <v>1.036494320688164</v>
       </c>
       <c r="L24">
-        <v>1.046236526224344</v>
+        <v>1.025326678428724</v>
       </c>
       <c r="M24">
-        <v>1.057966951002252</v>
+        <v>1.039376969229225</v>
       </c>
       <c r="N24">
-        <v>1.046721669113094</v>
+        <v>1.030665360292194</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040617453468873</v>
+        <v>1.009535043237301</v>
       </c>
       <c r="D25">
-        <v>1.047159239711698</v>
+        <v>1.028587168172385</v>
       </c>
       <c r="E25">
-        <v>1.04434808226002</v>
+        <v>1.018314899431231</v>
       </c>
       <c r="F25">
-        <v>1.056089025807752</v>
+        <v>1.032484710218332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042485663703194</v>
+        <v>1.048064867213682</v>
       </c>
       <c r="J25">
-        <v>1.046181409740699</v>
+        <v>1.033745721605602</v>
       </c>
       <c r="K25">
-        <v>1.050176492892016</v>
+        <v>1.040757340958218</v>
       </c>
       <c r="L25">
-        <v>1.047373987470987</v>
+        <v>1.030635400676696</v>
       </c>
       <c r="M25">
-        <v>1.059079128493014</v>
+        <v>1.044598835851078</v>
       </c>
       <c r="N25">
-        <v>1.047667107341215</v>
+        <v>1.035213759102574</v>
       </c>
     </row>
   </sheetData>
